--- a/ValueSet-claim-visit-type-codes.xlsx
+++ b/ValueSet-claim-visit-type-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:32:44+00:00</t>
+    <t>2021-09-14T14:33:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-visit-type-codes.xlsx
+++ b/ValueSet-claim-visit-type-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:33:18+00:00</t>
+    <t>2021-09-15T10:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-visit-type-codes.xlsx
+++ b/ValueSet-claim-visit-type-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:06:59+00:00</t>
+    <t>2021-09-15T10:19:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
